--- a/Raw_data/Sequence/New_Sequencing/DNA_ABS_STL_wt_sequence_labels.xlsx
+++ b/Raw_data/Sequence/New_Sequencing/DNA_ABS_STL_wt_sequence_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/Sequence/New_Sequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_2900FFD48F79A8D366075C52F37BD2728AC42A8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8371CCC-C42D-46F5-8C4A-D4B18E3A9CA3}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_2900FFD48F79A8D366075C52F37BD2728AC42A8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{116637F4-6A51-43D6-A599-D3A63C8A0A87}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3249,7 +3249,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="custom" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="-Please only use alphanumeric characters and underscores. Do not use spaces._x000a_-No duplicate names allowed. If sending sample replicates please use this naming convention: samplename_rpt1 etc._x000a_-15 character word limit applies." prompt="-Please only use alphanumeric characters and underscores. Do not use spaces._x000a_-No duplicate names allowed. If sending sample replicates please use this naming convention: samplename_rpt1 etc._x000a_-15 character word limit applies." sqref="F2:F82 F89:F97 G2:G92 G95" xr:uid="{C318C04D-0CCA-44D1-A34F-8BF44763C0D2}">
-      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(F2,ROW(INDIRECT("1:"&amp;LEN(F2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_"))), LEN(F2) &lt;16, COUNTIF($A$53:$A2,F2)=1)</formula1>
+      <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(F2,ROW(INDIRECT("1:"&amp;LEN(F2))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_"))), LEN(F2) &lt;16, COUNTIF($A2:$A$53,F2)=1)</formula1>
     </dataValidation>
     <dataValidation type="custom" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="-Please only use alphanumeric characters and underscores. Do not use spaces._x000a_-No duplicate names allowed. If sending sample replicates please use this naming convention: samplename_rpt1 etc._x000a_-15 character word limit applies." prompt="-Please only use alphanumeric characters and underscores. Do not use spaces._x000a_-No duplicate names allowed. If sending sample replicates please use this naming convention: samplename_rpt1 etc._x000a_-15 character word limit applies." sqref="F98:F108" xr:uid="{858992BB-1B55-48B0-964B-79921ADF18F4}">
       <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(F98,ROW(INDIRECT("1:"&amp;LEN(F98))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_"))), LEN(F98) &lt;16, COUNTIF($A$53:$A108,F98)=1)</formula1>
